--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0211 - Admin SLN melakukan setting Modul Mapping.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0211 - Admin SLN melakukan setting Modul Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F49F9-F7BC-492C-B0D6-7989883BBE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4656E6-5ECA-4CDD-9758-A2BC78427D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1635" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0211" sheetId="2" r:id="rId1"/>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -175,16 +175,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,94 +532,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="38.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="12">
         <v>52326</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -622,8 +631,8 @@
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
       <c r="I3" s="3"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="2"/>
@@ -634,8 +643,8 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="I4" s="3"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="3"/>
@@ -647,8 +656,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5"/>
@@ -656,8 +665,8 @@
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
